--- a/APGE.xlsx
+++ b/APGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB51419-1AF8-49A0-9C74-FF8AAD57CA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E018B798-F756-42CC-ABA7-6539D718900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21150" yWindow="3390" windowWidth="21720" windowHeight="17280" xr2:uid="{218F1D3C-8023-4B72-912D-18E7A705F10D}"/>
+    <workbookView xWindow="45940" yWindow="2670" windowWidth="26400" windowHeight="18030" xr2:uid="{218F1D3C-8023-4B72-912D-18E7A705F10D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Price</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Clinical Trials</t>
   </si>
   <si>
-    <t xml:space="preserve">  Ebglyss</t>
-  </si>
-  <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>APG333</t>
   </si>
   <si>
@@ -124,13 +118,46 @@
   </si>
   <si>
     <t>APG808</t>
+  </si>
+  <si>
+    <t>Waltham, MA</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>Founded: February 2022</t>
+  </si>
+  <si>
+    <t>Paragon</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ebglyss (lebrikizumab)</t>
+  </si>
+  <si>
+    <t>Phase II "APEX" atopic dermatitis</t>
+  </si>
+  <si>
+    <t>EASI at week 16 -71% vs. -34% for placebo</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>IL-4Ralpha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -141,6 +168,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -252,13 +287,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -269,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -279,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,173 +651,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF6B6C6-B603-4CD2-92D6-57076EB735B5}">
-  <dimension ref="B2:M8"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="5"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>59.503183999999997</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+        <v>59.596409000000001</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="6"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="5"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>2380.12736</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>2199.1074920999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="6"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="5"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>141.789+378.864+210.416</f>
-        <v>731.06899999999996</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+        <f>124.192+381.228+115.769</f>
+        <v>621.18900000000008</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="6"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="5"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="6"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="5"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>1649.05836</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="9"/>
+        <v>1577.9184920999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1046.066</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-427.351</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -795,23 +873,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B776793-1337-4A5C-B6F4-78890CBBCB0A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -819,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -827,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -835,12 +915,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -848,9 +928,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
